--- a/株価データ/9418_t_U-NEXT HOLDINGS CO LTD.xlsx
+++ b/株価データ/9418_t_U-NEXT HOLDINGS CO LTD.xlsx
@@ -11,6 +11,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U-NEXT HOLDINGS_週足" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U-NEXT HOLDINGS_月足" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U-NEXT HOLDINGS CO LTD_四半期足" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="U-NEXT HOLDINGS CO LTD_年足" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -85824,4 +85825,377 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Date</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Open</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>High</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Low</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Close</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Volume</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Dividends</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Stock Splits</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="3" t="n">
+        <v>42004</v>
+      </c>
+      <c r="B2" t="n">
+        <v>428.8098219682295</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1044.341930100013</v>
+      </c>
+      <c r="D2" t="n">
+        <v>410.8975028719991</v>
+      </c>
+      <c r="E2" t="n">
+        <v>743.6322021484375</v>
+      </c>
+      <c r="F2" t="n">
+        <v>144709200</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="3" t="n">
+        <v>42369</v>
+      </c>
+      <c r="B3" t="n">
+        <v>743.6322752506472</v>
+      </c>
+      <c r="C3" t="n">
+        <v>881.5028227202362</v>
+      </c>
+      <c r="D3" t="n">
+        <v>344.5677262010632</v>
+      </c>
+      <c r="E3" t="n">
+        <v>420.4508361816406</v>
+      </c>
+      <c r="F3" t="n">
+        <v>288504900</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.666667</v>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="3" t="n">
+        <v>42735</v>
+      </c>
+      <c r="B4" t="n">
+        <v>421.1801067627482</v>
+      </c>
+      <c r="C4" t="n">
+        <v>438.7972448166258</v>
+      </c>
+      <c r="D4" t="n">
+        <v>161.816662688793</v>
+      </c>
+      <c r="E4" t="n">
+        <v>193.1360321044922</v>
+      </c>
+      <c r="F4" t="n">
+        <v>51882900</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="3" t="n">
+        <v>43100</v>
+      </c>
+      <c r="B5" t="n">
+        <v>193.1360284778181</v>
+      </c>
+      <c r="C5" t="n">
+        <v>449.2370257008558</v>
+      </c>
+      <c r="D5" t="n">
+        <v>193.1360284778181</v>
+      </c>
+      <c r="E5" t="n">
+        <v>335.7043762207031</v>
+      </c>
+      <c r="F5" t="n">
+        <v>141050400</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>43465</v>
+      </c>
+      <c r="B6" t="n">
+        <v>335.7043793445497</v>
+      </c>
+      <c r="C6" t="n">
+        <v>603.2238794894572</v>
+      </c>
+      <c r="D6" t="n">
+        <v>253.8172818526835</v>
+      </c>
+      <c r="E6" t="n">
+        <v>297.5338745117188</v>
+      </c>
+      <c r="F6" t="n">
+        <v>131715300</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="3" t="n">
+        <v>43830</v>
+      </c>
+      <c r="B7" t="n">
+        <v>297.5339116351517</v>
+      </c>
+      <c r="C7" t="n">
+        <v>501.2870984249214</v>
+      </c>
+      <c r="D7" t="n">
+        <v>227.7178198440102</v>
+      </c>
+      <c r="E7" t="n">
+        <v>477.3224792480469</v>
+      </c>
+      <c r="F7" t="n">
+        <v>60288300</v>
+      </c>
+      <c r="G7" t="n">
+        <v>1.666667</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="3" t="n">
+        <v>44196</v>
+      </c>
+      <c r="B8" t="n">
+        <v>477.3224364546547</v>
+      </c>
+      <c r="C8" t="n">
+        <v>647.7009738822203</v>
+      </c>
+      <c r="D8" t="n">
+        <v>359.797430337895</v>
+      </c>
+      <c r="E8" t="n">
+        <v>442.1962890625</v>
+      </c>
+      <c r="F8" t="n">
+        <v>228732000</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="3" t="n">
+        <v>44561</v>
+      </c>
+      <c r="B9" t="n">
+        <v>442.1962718774536</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1293.432348505212</v>
+      </c>
+      <c r="D9" t="n">
+        <v>439.8982856874748</v>
+      </c>
+      <c r="E9" t="n">
+        <v>986.4883422851562</v>
+      </c>
+      <c r="F9" t="n">
+        <v>248085600</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="3" t="n">
+        <v>44926</v>
+      </c>
+      <c r="B10" t="n">
+        <v>986.488457401812</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1057.069180943896</v>
+      </c>
+      <c r="D10" t="n">
+        <v>579.7466117031805</v>
+      </c>
+      <c r="E10" t="n">
+        <v>707.230712890625</v>
+      </c>
+      <c r="F10" t="n">
+        <v>213818100</v>
+      </c>
+      <c r="G10" t="n">
+        <v>5</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="3" t="n">
+        <v>45291</v>
+      </c>
+      <c r="B11" t="n">
+        <v>707.2307535928504</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1339.710646038876</v>
+      </c>
+      <c r="D11" t="n">
+        <v>680.1186083714039</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1336.390380859375</v>
+      </c>
+      <c r="F11" t="n">
+        <v>181641900</v>
+      </c>
+      <c r="G11" t="n">
+        <v>3.333333</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="3" t="n">
+        <v>45657</v>
+      </c>
+      <c r="B12" t="n">
+        <v>1336.390360178121</v>
+      </c>
+      <c r="C12" t="n">
+        <v>1925.730300017048</v>
+      </c>
+      <c r="D12" t="n">
+        <v>1304.848267026895</v>
+      </c>
+      <c r="E12" t="n">
+        <v>1738.137573242188</v>
+      </c>
+      <c r="F12" t="n">
+        <v>192544000</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="3" t="n">
+        <v>46022</v>
+      </c>
+      <c r="B13" t="n">
+        <v>1738.13757389497</v>
+      </c>
+      <c r="C13" t="n">
+        <v>2140</v>
+      </c>
+      <c r="D13" t="n">
+        <v>1617.613421206551</v>
+      </c>
+      <c r="E13" t="n">
+        <v>2103</v>
+      </c>
+      <c r="F13" t="n">
+        <v>52341100</v>
+      </c>
+      <c r="G13" t="n">
+        <v>7</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>